--- a/test-cases/LoanApp_TestCases.xlsx
+++ b/test-cases/LoanApp_TestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\TechPortfolio\loan-application-project\test-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/113f25a2a0e0acc0/Documents/TechPortfolio/loan-application-project/test-cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFC57FB-3030-4637-AF78-24F14EFE387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{0AFC57FB-3030-4637-AF78-24F14EFE387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{671B20ED-0CB9-454C-BAF5-FC67A11489A4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{320805F3-D9A9-4108-8FAE-27A766F99FE0}"/>
   </bookViews>
@@ -1024,9 +1024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13E090-780F-445F-952B-676F26A7B686}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1034,7 +1034,7 @@
     <col min="1" max="1" width="12.26953125" customWidth="1"/>
     <col min="2" max="2" width="51.90625" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" customWidth="1"/>
+    <col min="4" max="4" width="57.36328125" customWidth="1"/>
     <col min="5" max="5" width="15.7265625" customWidth="1"/>
     <col min="6" max="6" width="60.54296875" customWidth="1"/>
     <col min="7" max="7" width="55.36328125" customWidth="1"/>
@@ -1794,7 +1794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="C43" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>169</v>
       </c>
       <c r="E43" t="s">
@@ -2043,8 +2043,9 @@
       <c r="G43" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="146" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -2054,20 +2055,21 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>168</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" t="s">
         <v>165</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -2077,7 +2079,7 @@
       <c r="C45" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>170</v>
       </c>
       <c r="E45" t="s">
@@ -2089,8 +2091,9 @@
       <c r="G45" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -2100,7 +2103,7 @@
       <c r="C46" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>176</v>
       </c>
       <c r="E46" t="s">
@@ -2112,8 +2115,9 @@
       <c r="G46" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -2123,7 +2127,7 @@
       <c r="C47" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>180</v>
       </c>
       <c r="E47" t="s">
@@ -2136,7 +2140,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -2146,7 +2150,7 @@
       <c r="C48" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>187</v>
       </c>
       <c r="E48" t="s">
@@ -2159,7 +2163,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>184</v>
       </c>
@@ -2169,7 +2173,7 @@
       <c r="C49" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" t="s">
         <v>194</v>
       </c>
       <c r="E49" t="s">
@@ -2182,7 +2186,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -2192,7 +2196,7 @@
       <c r="C50" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>194</v>
       </c>
       <c r="E50" t="s">
